--- a/biology/Botanique/Rosina_(rose)/Rosina_(rose).xlsx
+++ b/biology/Botanique/Rosina_(rose)/Rosina_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Rosina' est un cultivar de rosier miniature obtenu en Espagne en 1951 par le rosiériste Pedro Dot[1] ; c'est dans sa catégorie et sa couleur jaune l'un des rosiers les plus connus[2].
+'Rosina' est un cultivar de rosier miniature obtenu en Espagne en 1951 par le rosiériste Pedro Dot ; c'est dans sa catégorie et sa couleur jaune l'un des rosiers les plus connus.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Rosina' est une rose moderne du groupe miniature[3], issue du croisement 'Eduardo Toda' x 'Rouletii'. 
-Le petit buisson très épineux au port érigé s'élève de 20 cm à 30 cm, pour 30 cm d'envergure, avec un feuillage vert foncé et brillant[1]. Ses délicates fleurs jaunes légèrement parfumées en forme de coupe sont semi-doubles (16-30 pétales) et fleurissent en bouquets pendant toute la saison. Cette variété est appréciée des jardiniers en ce qu'elle est résistante aux maladies[4] et supporte l'ombre. Sa zone de rusticité est de 6b à 9b[1] et son pied doit être protégé des hivers froids. Elle peut être cultivée en pot, en rocaille, en couvre-sol. 'Rosina' est aussi fort appréciée des fleuristes pour les fleurs à couper et les pots d'intérieur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Rosina' est une rose moderne du groupe miniature, issue du croisement 'Eduardo Toda' x 'Rouletii'. 
+Le petit buisson très épineux au port érigé s'élève de 20 cm à 30 cm, pour 30 cm d'envergure, avec un feuillage vert foncé et brillant. Ses délicates fleurs jaunes légèrement parfumées en forme de coupe sont semi-doubles (16-30 pétales) et fleurissent en bouquets pendant toute la saison. Cette variété est appréciée des jardiniers en ce qu'elle est résistante aux maladies et supporte l'ombre. Sa zone de rusticité est de 6b à 9b et son pied doit être protégé des hivers froids. Elle peut être cultivée en pot, en rocaille, en couvre-sol. 'Rosina' est aussi fort appréciée des fleuristes pour les fleurs à couper et les pots d'intérieur.
 </t>
         </is>
       </c>
